--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.81935386781143</v>
+        <v>2.146258333333333</v>
       </c>
       <c r="H2">
-        <v>1.81935386781143</v>
+        <v>6.438775</v>
       </c>
       <c r="I2">
-        <v>0.3675424572175259</v>
+        <v>0.3745961416936294</v>
       </c>
       <c r="J2">
-        <v>0.3675424572175259</v>
+        <v>0.3745961416936293</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.28411963215797</v>
+        <v>2.553279333333334</v>
       </c>
       <c r="N2">
-        <v>2.28411963215797</v>
+        <v>7.659838000000001</v>
       </c>
       <c r="O2">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="P2">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="Q2">
-        <v>4.155621887310623</v>
+        <v>5.479997046494446</v>
       </c>
       <c r="R2">
-        <v>4.155621887310623</v>
+        <v>49.31997341845</v>
       </c>
       <c r="S2">
-        <v>0.05579634076441742</v>
+        <v>0.06162270993766799</v>
       </c>
       <c r="T2">
-        <v>0.05579634076441742</v>
+        <v>0.06162270993766797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.81935386781143</v>
+        <v>2.146258333333333</v>
       </c>
       <c r="H3">
-        <v>1.81935386781143</v>
+        <v>6.438775</v>
       </c>
       <c r="I3">
-        <v>0.3675424572175259</v>
+        <v>0.3745961416936294</v>
       </c>
       <c r="J3">
-        <v>0.3675424572175259</v>
+        <v>0.3745961416936293</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.01234071591097</v>
+        <v>8.058662</v>
       </c>
       <c r="N3">
-        <v>8.01234071591097</v>
+        <v>24.175986</v>
       </c>
       <c r="O3">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="P3">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="Q3">
-        <v>14.57728307171562</v>
+        <v>17.29597047301667</v>
       </c>
       <c r="R3">
-        <v>14.57728307171562</v>
+        <v>155.66373425715</v>
       </c>
       <c r="S3">
-        <v>0.1957249903251416</v>
+        <v>0.1944936397786901</v>
       </c>
       <c r="T3">
-        <v>0.1957249903251416</v>
+        <v>0.1944936397786901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.81935386781143</v>
+        <v>2.146258333333333</v>
       </c>
       <c r="H4">
-        <v>1.81935386781143</v>
+        <v>6.438775</v>
       </c>
       <c r="I4">
-        <v>0.3675424572175259</v>
+        <v>0.3745961416936294</v>
       </c>
       <c r="J4">
-        <v>0.3675424572175259</v>
+        <v>0.3745961416936293</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.7495252968805</v>
+        <v>4.909099333333334</v>
       </c>
       <c r="N4">
-        <v>4.7495252968805</v>
+        <v>14.727298</v>
       </c>
       <c r="O4">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="P4">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="Q4">
-        <v>8.641067219147768</v>
+        <v>10.53619535332778</v>
       </c>
       <c r="R4">
-        <v>8.641067219147768</v>
+        <v>94.82575817995</v>
       </c>
       <c r="S4">
-        <v>0.1160211261279669</v>
+        <v>0.1184797919772713</v>
       </c>
       <c r="T4">
-        <v>0.1160211261279669</v>
+        <v>0.1184797919772713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.89071285324006</v>
+        <v>1.966337333333333</v>
       </c>
       <c r="H5">
-        <v>1.89071285324006</v>
+        <v>5.899012</v>
       </c>
       <c r="I5">
-        <v>0.3819582656608488</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="J5">
-        <v>0.3819582656608488</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.28411963215797</v>
+        <v>2.553279333333334</v>
       </c>
       <c r="N5">
-        <v>2.28411963215797</v>
+        <v>7.659838000000001</v>
       </c>
       <c r="O5">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="P5">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="Q5">
-        <v>4.318614346859032</v>
+        <v>5.020608475561779</v>
       </c>
       <c r="R5">
-        <v>4.318614346859032</v>
+        <v>45.185476280056</v>
       </c>
       <c r="S5">
-        <v>0.05798479367510297</v>
+        <v>0.0564568734572683</v>
       </c>
       <c r="T5">
-        <v>0.05798479367510297</v>
+        <v>0.05645687345726829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.89071285324006</v>
+        <v>1.966337333333333</v>
       </c>
       <c r="H6">
-        <v>1.89071285324006</v>
+        <v>5.899012</v>
       </c>
       <c r="I6">
-        <v>0.3819582656608488</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="J6">
-        <v>0.3819582656608488</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.01234071591097</v>
+        <v>8.058662</v>
       </c>
       <c r="N6">
-        <v>8.01234071591097</v>
+        <v>24.175986</v>
       </c>
       <c r="O6">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="P6">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="Q6">
-        <v>15.14903557611153</v>
+        <v>15.84604794731467</v>
       </c>
       <c r="R6">
-        <v>15.14903557611153</v>
+        <v>142.614431525832</v>
       </c>
       <c r="S6">
-        <v>0.2034017468812654</v>
+        <v>0.1781892231019363</v>
       </c>
       <c r="T6">
-        <v>0.2034017468812654</v>
+        <v>0.1781892231019363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.89071285324006</v>
+        <v>1.966337333333333</v>
       </c>
       <c r="H7">
-        <v>1.89071285324006</v>
+        <v>5.899012</v>
       </c>
       <c r="I7">
-        <v>0.3819582656608488</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="J7">
-        <v>0.3819582656608488</v>
+        <v>0.3431937185263377</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.7495252968805</v>
+        <v>4.909099333333334</v>
       </c>
       <c r="N7">
-        <v>4.7495252968805</v>
+        <v>14.727298</v>
       </c>
       <c r="O7">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="P7">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="Q7">
-        <v>8.979988525600774</v>
+        <v>9.652945292175112</v>
       </c>
       <c r="R7">
-        <v>8.979988525600774</v>
+        <v>86.87650762957601</v>
       </c>
       <c r="S7">
-        <v>0.1205717251044805</v>
+        <v>0.108547621967133</v>
       </c>
       <c r="T7">
-        <v>0.1205717251044805</v>
+        <v>0.108547621967133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.23998416989814</v>
+        <v>1.616930333333333</v>
       </c>
       <c r="H8">
-        <v>1.23998416989814</v>
+        <v>4.850791</v>
       </c>
       <c r="I8">
-        <v>0.2504992771216254</v>
+        <v>0.282210139780033</v>
       </c>
       <c r="J8">
-        <v>0.2504992771216254</v>
+        <v>0.282210139780033</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.28411963215797</v>
+        <v>2.553279333333334</v>
       </c>
       <c r="N8">
-        <v>2.28411963215797</v>
+        <v>7.659838000000001</v>
       </c>
       <c r="O8">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="P8">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="Q8">
-        <v>2.832272186029445</v>
+        <v>4.128474803539778</v>
       </c>
       <c r="R8">
-        <v>2.832272186029445</v>
+        <v>37.156273231858</v>
       </c>
       <c r="S8">
-        <v>0.03802810465308051</v>
+        <v>0.04642480701084452</v>
       </c>
       <c r="T8">
-        <v>0.03802810465308051</v>
+        <v>0.04642480701084451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.23998416989814</v>
+        <v>1.616930333333333</v>
       </c>
       <c r="H9">
-        <v>1.23998416989814</v>
+        <v>4.850791</v>
       </c>
       <c r="I9">
-        <v>0.2504992771216254</v>
+        <v>0.282210139780033</v>
       </c>
       <c r="J9">
-        <v>0.2504992771216254</v>
+        <v>0.282210139780033</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.01234071591097</v>
+        <v>8.058662</v>
       </c>
       <c r="N9">
-        <v>8.01234071591097</v>
+        <v>24.175986</v>
       </c>
       <c r="O9">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="P9">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="Q9">
-        <v>9.935175651559932</v>
+        <v>13.03029503388067</v>
       </c>
       <c r="R9">
-        <v>9.935175651559932</v>
+        <v>117.272655304926</v>
       </c>
       <c r="S9">
-        <v>0.1333967481260753</v>
+        <v>0.1465260080365771</v>
       </c>
       <c r="T9">
-        <v>0.1333967481260753</v>
+        <v>0.1465260080365771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.23998416989814</v>
+        <v>1.616930333333333</v>
       </c>
       <c r="H10">
-        <v>1.23998416989814</v>
+        <v>4.850791</v>
       </c>
       <c r="I10">
-        <v>0.2504992771216254</v>
+        <v>0.282210139780033</v>
       </c>
       <c r="J10">
-        <v>0.2504992771216254</v>
+        <v>0.282210139780033</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.7495252968805</v>
+        <v>4.909099333333334</v>
       </c>
       <c r="N10">
-        <v>4.7495252968805</v>
+        <v>14.727298</v>
       </c>
       <c r="O10">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="P10">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="Q10">
-        <v>5.889336182662584</v>
+        <v>7.937671621413112</v>
       </c>
       <c r="R10">
-        <v>5.889336182662584</v>
+        <v>71.43904459271801</v>
       </c>
       <c r="S10">
-        <v>0.07907442434246961</v>
+        <v>0.08925932473261136</v>
       </c>
       <c r="T10">
-        <v>0.07907442434246961</v>
+        <v>0.08925932473261136</v>
       </c>
     </row>
   </sheetData>
